--- a/planilhas/cad-usuario-junho.xlsx
+++ b/planilhas/cad-usuario-junho.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\cad-user\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Projetos GitHub\cad-user\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C06F37-C9DA-45F9-8A77-5DC7AF08170E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59807174-85AC-4DB9-99ED-B7CB8A13F83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{21D5154F-2D7F-4E06-A59B-6AF10DE9DB00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="user-junho" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
